--- a/0-varios/Archivos-Office/RCLV.xlsx
+++ b/0-varios/Archivos-Office/RCLV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\1. Proyectos Web\ELC-Peliculas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\1. Proyectos Web\ELC-Peliculas\0-varios\Archivos-Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -508,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -811,42 +817,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -865,22 +847,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,6 +991,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,7 +1313,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1324,66 +1321,66 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="70" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="72" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="76" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="78" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="78" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="81" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1424,7 +1421,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="85" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1436,7 +1433,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1446,7 +1443,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1453,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1464,7 +1461,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="86" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1475,7 +1472,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="98"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1517,47 +1514,47 @@
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="11.42578125" collapsed="1"/>
-    <col min="11" max="11" width="6.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.42578125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="82" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="54" t="s">
         <v>88</v>
       </c>
       <c r="M1" s="17" t="s">
@@ -1565,25 +1562,25 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="B2" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="41" t="s">
         <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1595,10 +1592,10 @@
       <c r="J2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="55">
+      <c r="L2" s="43">
         <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1606,25 +1603,25 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="41" t="s">
         <v>72</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1636,10 +1633,10 @@
       <c r="J3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="43">
         <v>100</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -1647,25 +1644,25 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="41" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -1677,10 +1674,10 @@
       <c r="J4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="43" t="s">
         <v>69</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1688,28 +1685,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="53" t="s">
+      <c r="B5" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="41" t="s">
         <v>115</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="41" t="s">
         <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1718,10 +1715,10 @@
       <c r="J5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="43">
         <v>33</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="43" t="s">
         <v>69</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -1729,28 +1726,28 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="B6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="53" t="s">
+      <c r="G6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="41" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1759,10 +1756,10 @@
       <c r="J6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="43" t="s">
         <v>69</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1770,40 +1767,40 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="53" t="s">
+      <c r="B7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="53" t="s">
+      <c r="G7" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="41" t="s">
         <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="43" t="s">
         <v>69</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1811,40 +1808,40 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="53" t="s">
+      <c r="B8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="53" t="s">
+      <c r="G8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="43" t="s">
         <v>69</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -1852,40 +1849,40 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="53" t="s">
+      <c r="B9" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="53" t="s">
+      <c r="G9" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="43" t="s">
         <v>69</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -1893,40 +1890,40 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="53" t="s">
+      <c r="B10" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="53" t="s">
+      <c r="G10" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="43" t="s">
         <v>69</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -1934,40 +1931,40 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="53" t="s">
+      <c r="B11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="53" t="s">
+      <c r="G11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="43" t="s">
         <v>69</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -1994,333 +1991,333 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="69" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="68"/>
+    <col min="1" max="1" width="20" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="69" t="s">
+      <c r="B2" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="68" t="s">
+      <c r="F2" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="56" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="69" t="s">
+      <c r="B3" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="56" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="69" t="s">
+      <c r="B4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="68" t="s">
+      <c r="F4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="56" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="69" t="s">
+      <c r="B5" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="75" t="s">
+      <c r="E5" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="68" t="s">
+      <c r="H5" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="56" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="70" t="s">
+      <c r="B6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="77" t="s">
+      <c r="E6" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="65" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="70" t="s">
+      <c r="B7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="77" t="s">
+      <c r="E7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="65" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="70" t="s">
+      <c r="B8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="77" t="s">
+      <c r="E8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="65" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="70" t="s">
+      <c r="B9" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="77" t="s">
+      <c r="E9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="65" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="70" t="s">
+      <c r="B10" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="77" t="s">
+      <c r="E10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="70" t="s">
+      <c r="B11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="77" t="s">
+      <c r="E11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="65" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2343,332 +2340,332 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.28515625" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="76" customWidth="1"/>
-    <col min="5" max="6" width="6" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="68"/>
+    <col min="1" max="1" width="20" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="64" customWidth="1"/>
+    <col min="5" max="6" width="6" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="76" t="s">
+      <c r="B2" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="70" t="s">
+      <c r="E2" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="56" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="76" t="s">
+      <c r="B3" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="70" t="s">
+      <c r="E3" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="68" t="s">
+      <c r="H3" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="76" t="s">
+      <c r="B4" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="68" t="s">
+      <c r="E4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="56" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="76" t="s">
+      <c r="B5" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="70" t="s">
+      <c r="E5" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="56" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="76" t="s">
+      <c r="B6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="68" t="s">
+      <c r="E6" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="76" t="s">
+      <c r="B7" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="68" t="s">
+      <c r="E7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="56" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="76" t="s">
+      <c r="B8" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="68" t="s">
+      <c r="E8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="56" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="76" t="s">
+      <c r="B9" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="68" t="s">
+      <c r="E9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="56" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="76" t="s">
+      <c r="B10" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="68" t="s">
+      <c r="E10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="56" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="76" t="s">
+      <c r="B11" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="68" t="s">
+      <c r="E11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="56" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2685,8 +2682,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,17 +2700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="F1" s="56" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="F1" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -2744,208 +2741,208 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="44"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="19"/>
-      <c r="H6" s="44"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
       <c r="F7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="G9" s="28" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="G9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="47"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="21"/>
-      <c r="H10" s="44"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
       <c r="F11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="G13" s="28" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="G13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="43"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="48"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
       <c r="F15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="95"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="G16" s="23" t="s">
+      <c r="B16" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="G16" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="21"/>
-      <c r="G17" s="28" t="s">
+      <c r="B17" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="G17" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="21"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B19" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
       <c r="F19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="95"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="15"/>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -2954,163 +2951,163 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="G27" s="49" t="s">
+      <c r="C27" s="38"/>
+      <c r="G27" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="51"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="38" t="s">
+      <c r="H29" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="51"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="G31" s="35" t="s">
+      <c r="C31" s="38"/>
+      <c r="G31" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="35" t="s">
+      <c r="C32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="49" t="s">
+      <c r="C33" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="51"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="G34" s="35" t="s">
+      <c r="C34" s="38"/>
+      <c r="G34" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="31" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="50"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="44"/>
-      <c r="G37" s="35" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="G37" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="37"/>
-      <c r="G38" s="36" t="s">
+      <c r="B38" s="29"/>
+      <c r="G38" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="31" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3119,5 +3116,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/0-varios/Archivos-Office/RCLV.xlsx
+++ b/0-varios/Archivos-Office/RCLV.xlsx
@@ -766,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -823,12 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -854,9 +848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,6 +1009,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,7 +1310,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1321,66 +1318,66 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="67" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="71" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="73" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="75" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="75" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="78" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1421,7 +1418,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1433,7 +1430,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1443,7 +1440,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1450,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1461,7 +1458,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="83" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1472,7 +1469,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="86"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1514,47 +1511,47 @@
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="11.42578125" collapsed="1"/>
-    <col min="11" max="11" width="6.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.42578125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="79" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="51" t="s">
         <v>88</v>
       </c>
       <c r="M1" s="17" t="s">
@@ -1562,25 +1559,25 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="41" t="s">
+      <c r="B2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1592,10 +1589,10 @@
       <c r="J2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="40">
         <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1603,25 +1600,25 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1633,10 +1630,10 @@
       <c r="J3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="40">
         <v>100</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -1644,25 +1641,25 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="B4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="38" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -1674,10 +1671,10 @@
       <c r="J4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="40" t="s">
         <v>69</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1685,28 +1682,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="38" t="s">
         <v>115</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1715,10 +1712,10 @@
       <c r="J5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="40">
         <v>33</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="40" t="s">
         <v>69</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -1726,28 +1723,28 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="41" t="s">
+      <c r="G6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1756,10 +1753,10 @@
       <c r="J6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="40" t="s">
         <v>69</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1767,40 +1764,40 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="41" t="s">
+      <c r="G7" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="40" t="s">
         <v>69</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1808,40 +1805,40 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="41" t="s">
+      <c r="G8" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="40" t="s">
         <v>69</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -1849,40 +1846,40 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="G9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="40" t="s">
         <v>69</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -1890,40 +1887,40 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="41" t="s">
+      <c r="B10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="41" t="s">
+      <c r="G10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L10" s="40" t="s">
         <v>69</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -1931,40 +1928,40 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="41" t="s">
+      <c r="B11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="40" t="s">
         <v>69</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -1991,333 +1988,333 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="20" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="57" t="s">
+      <c r="B2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="56" t="s">
+      <c r="F2" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="53" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="56" t="s">
+      <c r="F3" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="53" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="56" t="s">
+      <c r="F4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="B5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="63" t="s">
+      <c r="E5" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="53" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="58" t="s">
+      <c r="B6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="65" t="s">
+      <c r="E6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="B7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="65" t="s">
+      <c r="E7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="62" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="58" t="s">
+      <c r="B8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="65" t="s">
+      <c r="E8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="62" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="58" t="s">
+      <c r="B9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="65" t="s">
+      <c r="E9" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="62" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="58" t="s">
+      <c r="B10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="65" t="s">
+      <c r="E10" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="62" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="58" t="s">
+      <c r="B11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="65" t="s">
+      <c r="E11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="62" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2340,332 +2337,332 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="64" customWidth="1"/>
-    <col min="5" max="6" width="6" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="57" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="20" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="61" customWidth="1"/>
+    <col min="5" max="6" width="6" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="B2" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="58" t="s">
+      <c r="E2" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="53" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="B3" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="58" t="s">
+      <c r="E3" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="56" t="s">
+      <c r="H3" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="64" t="s">
+      <c r="B4" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="56" t="s">
+      <c r="E4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="53" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="64" t="s">
+      <c r="B5" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="58" t="s">
+      <c r="E5" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="64" t="s">
+      <c r="B6" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="56" t="s">
+      <c r="E6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="53" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="56" t="s">
+      <c r="E7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="53" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="64" t="s">
+      <c r="B8" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="56" t="s">
+      <c r="E8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="53" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="64" t="s">
+      <c r="B9" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="56" t="s">
+      <c r="E9" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="64" t="s">
+      <c r="B10" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="56" t="s">
+      <c r="E10" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="53" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="64" t="s">
+      <c r="B11" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="56" t="s">
+      <c r="E11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="53" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2682,8 +2679,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,17 +2697,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="44" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="F1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -2741,145 +2738,145 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="33"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="19"/>
-      <c r="H6" s="33"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
       <c r="F7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="95"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="G9" s="25" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="G9" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="21"/>
-      <c r="H10" s="33"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="F11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="95"/>
+      <c r="H11" s="92"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="G13" s="25" t="s">
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="G13" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="32"/>
-      <c r="H14" s="36"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
       <c r="F15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="95"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
       <c r="G16" s="22" t="s">
         <v>111</v>
       </c>
@@ -2887,62 +2884,62 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="G17" s="25" t="s">
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="G17" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="21"/>
-      <c r="H18" s="33"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
       <c r="F19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="G19" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="95"/>
+      <c r="H19" s="92"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="15"/>
       <c r="G20" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="34"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="35"/>
+      <c r="H21" s="93"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -2951,163 +2948,163 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="G27" s="37" t="s">
+      <c r="C27" s="35"/>
+      <c r="G27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="G31" s="27" t="s">
+      <c r="C31" s="35"/>
+      <c r="G31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="27" t="s">
+      <c r="C32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="37" t="s">
+      <c r="C33" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="G34" s="27" t="s">
+      <c r="C34" s="35"/>
+      <c r="G34" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="38"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="33"/>
-      <c r="G37" s="27" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="31"/>
+      <c r="G37" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="G38" s="28" t="s">
+      <c r="B38" s="27"/>
+      <c r="G38" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="29" t="s">
         <v>72</v>
       </c>
     </row>

--- a/0-varios/Archivos-Office/RCLV.xlsx
+++ b/0-varios/Archivos-Office/RCLV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="4575" tabRatio="818" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="4575" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Subcats CFC - Cuestionario" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Hechos - Campos'!$A$1:$I$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Personajes - Campos'!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Personajes - Campos'!$A$1:$H$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Subcats - Campos'!$A$1:$M$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Subcats CFC - Cuestionario'!$A$1:$B$9</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="128">
   <si>
     <t>Jesús</t>
   </si>
@@ -977,44 +977,44 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,7 +1418,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1430,7 +1430,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="94" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="83"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1980,10 +1980,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,14 +1992,13 @@
     <col min="2" max="3" width="5.28515625" style="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="54" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="53"/>
+    <col min="6" max="6" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>96</v>
       </c>
@@ -2016,19 +2015,16 @@
         <v>45</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="G1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
@@ -2050,14 +2046,11 @@
       <c r="G2" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>37</v>
       </c>
@@ -2079,14 +2072,11 @@
       <c r="G3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="53" t="s">
+      <c r="H3" s="53" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
@@ -2108,14 +2098,11 @@
       <c r="G4" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="53" t="s">
+      <c r="H4" s="53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>1</v>
       </c>
@@ -2131,20 +2118,17 @@
       <c r="E5" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="60" t="s">
+      <c r="F5" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="53" t="s">
+      <c r="G5" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
@@ -2166,14 +2150,11 @@
       <c r="G6" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="62" t="s">
+      <c r="H6" s="62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
@@ -2195,14 +2176,11 @@
       <c r="G7" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="62" t="s">
+      <c r="H7" s="62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>6</v>
       </c>
@@ -2224,14 +2202,11 @@
       <c r="G8" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>4</v>
       </c>
@@ -2253,14 +2228,11 @@
       <c r="G9" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>5</v>
       </c>
@@ -2282,14 +2254,11 @@
       <c r="G10" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="62" t="s">
+      <c r="H10" s="62" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>8</v>
       </c>
@@ -2311,15 +2280,12 @@
       <c r="G11" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="62" t="s">
+      <c r="H11" s="62" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11"/>
+  <autoFilter ref="A1:H11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2679,8 +2645,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,43 +2732,43 @@
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="F7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="92"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="94"/>
+      <c r="H8" s="92"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="G9" s="87" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="G9" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="93"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
@@ -2813,43 +2779,43 @@
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="F11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="92"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="94"/>
+      <c r="H12" s="92"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="G13" s="87" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="G13" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="91"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G14" s="30"/>
@@ -2857,26 +2823,26 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="F15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="92"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
       <c r="G16" s="22" t="s">
         <v>111</v>
       </c>
@@ -2884,15 +2850,15 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="G17" s="87" t="s">
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="G17" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="93"/>
+      <c r="H17" s="91"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
@@ -2903,18 +2869,18 @@
       <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="F19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="90" t="s">
+      <c r="G19" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="92"/>
+      <c r="H19" s="90"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="15"/>
@@ -2924,10 +2890,10 @@
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="93"/>
+      <c r="H21" s="91"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H22" s="14"/>

--- a/0-varios/Archivos-Office/RCLV.xlsx
+++ b/0-varios/Archivos-Office/RCLV.xlsx
@@ -85,9 +85,6 @@
     <t>CFC</t>
   </si>
   <si>
-    <t>Santo/Beato</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>El protagonista es contemporáneos de Jesús o de los Apóstoles</t>
+  </si>
+  <si>
+    <t>santo_beato</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1311,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,15 +1346,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1410,23 +1410,23 @@
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,26 +1446,26 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="93"/>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1519,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>15</v>
@@ -1528,34 +1528,34 @@
         <v>14</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J1" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K1" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="51" t="s">
-        <v>88</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1563,81 +1563,81 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" s="40">
         <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L3" s="40">
         <v>100</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1645,40 +1645,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1686,40 +1686,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="40">
         <v>33</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1727,40 +1727,40 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1768,40 +1768,40 @@
         <v>7</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1809,40 +1809,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1850,40 +1850,40 @@
         <v>4</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1891,40 +1891,40 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1932,40 +1932,40 @@
         <v>8</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +2000,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>15</v>
@@ -2009,16 +2009,16 @@
         <v>14</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="80" t="s">
-        <v>46</v>
-      </c>
       <c r="G1" s="59" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="H1" s="50" t="s">
         <v>10</v>
@@ -2029,51 +2029,51 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2081,25 +2081,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2107,25 +2107,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2133,22 +2133,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="62" t="s">
         <v>11</v>
@@ -2159,25 +2159,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2185,25 +2185,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,25 +2211,25 @@
         <v>4</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2237,22 +2237,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>14</v>
@@ -2263,22 +2263,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="62" t="s">
         <v>14</v>
@@ -2315,7 +2315,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>15</v>
@@ -2324,19 +2324,19 @@
         <v>14</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="81" t="s">
-        <v>55</v>
-      </c>
       <c r="G1" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="50" t="s">
         <v>10</v>
@@ -2347,25 +2347,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="53" t="s">
         <v>0</v>
@@ -2373,28 +2373,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="53" t="s">
         <v>13</v>
@@ -2405,28 +2405,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="53" t="s">
         <v>100</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2434,22 +2434,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="55" t="s">
         <v>9</v>
@@ -2463,28 +2463,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="53" t="s">
         <v>100</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2492,28 +2492,28 @@
         <v>7</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2521,28 +2521,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2550,28 +2550,28 @@
         <v>4</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2579,28 +2579,28 @@
         <v>5</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2608,28 +2608,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2664,26 +2664,26 @@
   <sheetData>
     <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
       <c r="D1" s="43"/>
       <c r="F1" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="42"/>
       <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>15</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>14</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>13</v>
@@ -2738,35 +2738,35 @@
       <c r="C7" s="89"/>
       <c r="D7" s="90"/>
       <c r="F7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="90"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" s="84"/>
       <c r="F8" s="16"/>
       <c r="G8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="92"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="87"/>
       <c r="G9" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="91"/>
     </row>
@@ -2777,15 +2777,15 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="90"/>
       <c r="F11" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="88" t="s">
         <v>13</v>
@@ -2795,25 +2795,25 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="83"/>
       <c r="D12" s="84"/>
       <c r="F12" s="16"/>
       <c r="G12" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="92"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="86"/>
       <c r="D13" s="87"/>
       <c r="G13" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="91"/>
     </row>
@@ -2824,39 +2824,39 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="90"/>
       <c r="F15" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="83"/>
       <c r="D16" s="84"/>
       <c r="G16" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="86"/>
       <c r="D17" s="87"/>
       <c r="G17" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="91"/>
     </row>
@@ -2867,31 +2867,31 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="89"/>
       <c r="D19" s="90"/>
       <c r="F19" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="90"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="15"/>
       <c r="G20" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G21" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="91"/>
     </row>
@@ -2903,19 +2903,19 @@
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -2931,40 +2931,40 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="35"/>
       <c r="G27" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,37 +2972,37 @@
         <v>12</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="35"/>
       <c r="G31" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -3010,37 +3010,37 @@
         <v>12</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H33" s="36"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="35"/>
       <c r="G34" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -3048,10 +3048,10 @@
         <v>12</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" s="35"/>
     </row>
@@ -3059,10 +3059,10 @@
       <c r="B37" s="37"/>
       <c r="C37" s="31"/>
       <c r="G37" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
